--- a/main/scraping/status.xlsx
+++ b/main/scraping/status.xlsx
@@ -1,34 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mseduculiegebe-my.sharepoint.com/personal/c_werenne_student_uliege_be/Documents/GitHub/Employee-sentiment-and-financial-performance/main/scraping/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_778B9DAA82E10591128F835A42B91F73EA2AFECA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC07F3E-8DEB-9843-8351-B36039DA55DE}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-64120" yWindow="620" windowWidth="24280" windowHeight="18400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-34900" yWindow="-300" windowWidth="24280" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="working_sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="legend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="working_sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="legend" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+  <si>
+    <t>université de liège</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Université-de-Liège-Reviews-E193870.htm</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>myprotein</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Myprotein-Reviews-E1199794.htm</t>
+  </si>
+  <si>
+    <t>nestlé</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Nestlé-Reviews-E3492.htm</t>
+  </si>
+  <si>
+    <t>filter:</t>
+  </si>
+  <si>
+    <t>?sort.sortType=RD&amp;sort.ascending=false&amp;filter.iso3Language=eng&amp;filter.employmentStatus=PART_TIME&amp;filter.employmentStatus=INTERN&amp;filter.employmentStatus=REGULAR</t>
+  </si>
+  <si>
+    <t>fdkjsqhf</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/ING-Reviews-E4264.htm</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>how_many_results</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>links+filter</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t>Links:</t>
+  </si>
+  <si>
+    <t>Could not get link</t>
+  </si>
+  <si>
+    <t>Did not try to get link yet</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Found a link succesfully</t>
+  </si>
+  <si>
+    <t>Did not scrape any reviews yet</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Scraped and saved until page number</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Scraped and saved everything</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,81 +166,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,136 +481,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="12.5" customWidth="1" min="4" max="4"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>université de liège</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>https://www.glassdoor.com/Reviews/Université-de-Liège-Reviews-E193870.htm</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>https://www.glassdoor.com/Reviews/Université-de-Liège-Reviews-E193870.htm?sort.sortType=RD&amp;sort.ascending=false&amp;filter.iso3Language=eng&amp;filter.employmentStatus=PART_TIME&amp;filter.employmentStatus=INTERN&amp;filter.employmentStatus=REGULAR</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>myprotein</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.glassdoor.com/Reviews/Myprotein-Reviews-E1199794.htm</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://www.glassdoor.com/Reviews/Myprotein-Reviews-E1199794.htm?sort.sortType=RD&amp;sort.ascending=false&amp;filter.iso3Language=eng&amp;filter.employmentStatus=PART_TIME&amp;filter.employmentStatus=INTERN&amp;filter.employmentStatus=REGULAR</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>nestlé</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.glassdoor.com/Reviews/Nestlé-Reviews-E3492.htm</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://www.glassdoor.com/Reviews/Nestlé-Reviews-E3492.htm?sort.sortType=RD&amp;sort.ascending=false&amp;filter.iso3Language=eng&amp;filter.employmentStatus=PART_TIME&amp;filter.employmentStatus=INTERN&amp;filter.employmentStatus=REGULAR</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>filter:</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>?sort.sortType=RD&amp;sort.ascending=false&amp;filter.iso3Language=eng&amp;filter.employmentStatus=PART_TIME&amp;filter.employmentStatus=INTERN&amp;filter.employmentStatus=REGULAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>fdkjsqhf</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="str">
+        <f>IF(C1="_", "_", IF(C1="/", "/", CONCATENATE(C1,$I$3)))</f>
+        <v>https://www.glassdoor.com/Reviews/Université-de-Liège-Reviews-E193870.htm?sort.sortType=RD&amp;sort.ascending=false&amp;filter.iso3Language=eng&amp;filter.employmentStatus=PART_TIME&amp;filter.employmentStatus=INTERN&amp;filter.employmentStatus=REGULAR</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D5" si="0">IF(C2="_", "_", IF(C2="/", "/", CONCATENATE(C2,$I$3)))</f>
+        <v>https://www.glassdoor.com/Reviews/Myprotein-Reviews-E1199794.htm?sort.sortType=RD&amp;sort.ascending=false&amp;filter.iso3Language=eng&amp;filter.employmentStatus=PART_TIME&amp;filter.employmentStatus=INTERN&amp;filter.employmentStatus=REGULAR</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.glassdoor.com/Reviews/Nestlé-Reviews-E3492.htm?sort.sortType=RD&amp;sort.ascending=false&amp;filter.iso3Language=eng&amp;filter.employmentStatus=PART_TIME&amp;filter.employmentStatus=INTERN&amp;filter.employmentStatus=REGULAR</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>/</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.glassdoor.com/Reviews/ING-Reviews-E4264.htm?sort.sortType=RD&amp;sort.ascending=false&amp;filter.iso3Language=eng&amp;filter.employmentStatus=PART_TIME&amp;filter.employmentStatus=INTERN&amp;filter.employmentStatus=REGULAR</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -559,137 +595,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>companies</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>how_many_results</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>links</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>links+filter</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Legend:</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Links:</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Could not get link</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Did not try to get link yet</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Found a link succesfully</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Did not scrape any reviews yet</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Scraped and saved until page number</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Scraped and saved everything</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
